--- a/Clozing In.xlsx
+++ b/Clozing In.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahenr\OneDrive - KCETB\Desktop\Github[Cormac]\concept25-CormacBowes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D32B6-C61C-4A77-BAB0-9E4A120DA569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F777EE05-2946-4E66-AD5B-166530E296C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B114BF61-C9F1-47F8-B51B-C5362F104DFD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>want 20-30% each</t>
   </si>
@@ -171,7 +171,10 @@
     <t>To Be Chosen</t>
   </si>
   <si>
-    <t>Clozing In</t>
+    <t>Arena of the Eternal Knight</t>
+  </si>
+  <si>
+    <t>Jake Reid</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1AE6D3-2084-479B-AB85-13952D070B1F}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -650,7 +655,7 @@
       </c>
       <c r="G2" s="2">
         <f>SUM(G4:G23)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -764,7 +769,9 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
       <c r="E5">
         <v>25</v>
       </c>
@@ -774,7 +781,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -811,7 +818,9 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
       <c r="E6">
         <v>5</v>
       </c>
@@ -821,7 +830,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -858,7 +867,9 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
       <c r="E7">
         <v>15</v>
       </c>
@@ -868,7 +879,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -905,7 +916,9 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
       <c r="E8">
         <v>15</v>
       </c>
@@ -915,7 +928,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1050,7 +1063,9 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6">
+        <v>15</v>
+      </c>
       <c r="E11">
         <v>20</v>
       </c>
@@ -1060,7 +1075,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1146,7 +1161,9 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6">
+        <v>10</v>
+      </c>
       <c r="E13">
         <v>20</v>
       </c>
@@ -1156,7 +1173,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1196,7 +1213,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
